--- a/data/processed-italian-db.xlsx
+++ b/data/processed-italian-db.xlsx
@@ -1,32 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BDA-V1-2015-6" sheetId="1" r:id="rId1"/>
+    <sheet name="BDA-V1-2015-6" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,13 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -339,12 +408,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CR6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1311,6 +1385,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>g</t>
@@ -1788,280 +1867,280 @@
           <t>Milk Latte</t>
         </is>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>1000</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>83</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>327</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>340</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>77</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>80</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>2.1</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>2.1</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>0.1</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>0.1</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>18</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>17.6</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>0.4</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>1.6</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>78.5</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>0.6</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>10</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>7</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>570</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>54</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>0.27</v>
       </c>
-      <c r="AD4">
-        <v>-3</v>
-      </c>
-      <c r="AE4">
-        <v>-3</v>
-      </c>
-      <c r="AF4">
-        <v>-3</v>
-      </c>
-      <c r="AG4">
-        <v>-3</v>
-      </c>
-      <c r="AH4">
-        <v>-3</v>
-      </c>
-      <c r="AI4">
-        <v>-3</v>
-      </c>
-      <c r="AJ4">
-        <v>-3</v>
-      </c>
-      <c r="AK4">
+      <c r="AD4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AK4" t="n">
         <v>0.1</v>
       </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
         <v>0.92</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>1.1</v>
       </c>
-      <c r="AP4">
-        <v>-3</v>
-      </c>
-      <c r="AQ4">
+      <c r="AP4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>8.18</v>
       </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
         <v>0.36</v>
       </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
         <v>18</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" t="n">
         <v>0.06</v>
       </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>-3</v>
-      </c>
-      <c r="AZ4">
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>0.03</v>
       </c>
-      <c r="BA4">
-        <v>-3</v>
-      </c>
-      <c r="BB4">
-        <v>-3</v>
-      </c>
-      <c r="BC4">
-        <v>-3</v>
-      </c>
-      <c r="BD4">
-        <v>-3</v>
-      </c>
-      <c r="BE4">
-        <v>-3</v>
-      </c>
-      <c r="BF4">
-        <v>-3</v>
-      </c>
-      <c r="BG4">
-        <v>-3</v>
-      </c>
-      <c r="BH4">
+      <c r="BA4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BH4" t="n">
         <v>0.21</v>
       </c>
-      <c r="BI4">
-        <v>-3</v>
-      </c>
-      <c r="BJ4">
-        <v>-3</v>
-      </c>
-      <c r="BK4">
+      <c r="BI4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BK4" t="n">
         <v>0.21</v>
       </c>
-      <c r="BL4">
-        <v>-3</v>
-      </c>
-      <c r="BM4">
-        <v>-3</v>
-      </c>
-      <c r="BN4">
+      <c r="BL4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BN4" t="n">
         <v>0.01</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="n">
         <v>3348</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" t="n">
         <v>3381</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="n">
         <v>1033</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" t="n">
         <v>490</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" t="n">
         <v>1585</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" t="n">
         <v>1306</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" t="n">
         <v>2292</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" t="n">
         <v>2577</v>
       </c>
-      <c r="BW4">
+      <c r="BW4" t="n">
         <v>1339</v>
       </c>
-      <c r="BX4">
+      <c r="BX4" t="n">
         <v>2858</v>
       </c>
-      <c r="BY4">
-        <v>-3</v>
-      </c>
-      <c r="BZ4">
-        <v>-3</v>
-      </c>
-      <c r="CA4">
-        <v>-3</v>
-      </c>
-      <c r="CB4">
-        <v>-3</v>
-      </c>
-      <c r="CC4">
-        <v>-3</v>
-      </c>
-      <c r="CD4">
-        <v>-3</v>
-      </c>
-      <c r="CE4">
-        <v>-3</v>
-      </c>
-      <c r="CF4">
-        <v>-3</v>
-      </c>
-      <c r="CG4">
-        <v>-3</v>
-      </c>
-      <c r="CH4">
-        <v>-3</v>
-      </c>
-      <c r="CI4">
-        <v>-3</v>
-      </c>
-      <c r="CJ4">
-        <v>-3</v>
-      </c>
-      <c r="CK4">
-        <v>-3</v>
-      </c>
-      <c r="CL4">
-        <v>-3</v>
-      </c>
-      <c r="CM4">
-        <v>-3</v>
-      </c>
-      <c r="CN4">
-        <v>-3</v>
-      </c>
-      <c r="CO4">
-        <v>-3</v>
-      </c>
-      <c r="CP4">
-        <v>-3</v>
-      </c>
-      <c r="CQ4">
-        <v>-3</v>
-      </c>
-      <c r="CR4">
+      <c r="BY4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CR4" t="n">
         <v>-3</v>
       </c>
     </row>
@@ -2086,280 +2165,280 @@
           <t>Batata</t>
         </is>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>1000</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>84</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>372.3</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>391</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>87</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>92</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>1.2</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>1.2</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>0.3</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>0.3</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>2360</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>7</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>0.01</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>110</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>0.22</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>0.19</v>
       </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>2</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>40</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>0.45</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>0.14</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>-2</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>4.7</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>0.3</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>3</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>0.92</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>2</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>1</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>-2</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>0.17</v>
       </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
         <v>0.92</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>1.1</v>
       </c>
-      <c r="AP5">
-        <v>-3</v>
-      </c>
-      <c r="AQ5">
+      <c r="AP5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>14</v>
       </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
         <v>0.62</v>
       </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
         <v>3930</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" t="n">
         <v>4.56</v>
       </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>-3</v>
-      </c>
-      <c r="AZ5">
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>0.06</v>
       </c>
-      <c r="BA5">
-        <v>-3</v>
-      </c>
-      <c r="BB5">
-        <v>-3</v>
-      </c>
-      <c r="BC5">
-        <v>-3</v>
-      </c>
-      <c r="BD5">
-        <v>-3</v>
-      </c>
-      <c r="BE5">
-        <v>-3</v>
-      </c>
-      <c r="BF5">
-        <v>-3</v>
-      </c>
-      <c r="BG5">
-        <v>-3</v>
-      </c>
-      <c r="BH5">
+      <c r="BA5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BH5" t="n">
         <v>0.14</v>
       </c>
-      <c r="BI5">
-        <v>-3</v>
-      </c>
-      <c r="BJ5">
-        <v>-3</v>
-      </c>
-      <c r="BK5">
+      <c r="BI5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BK5" t="n">
         <v>0.14</v>
       </c>
-      <c r="BL5">
-        <v>-3</v>
-      </c>
-      <c r="BM5">
-        <v>-3</v>
-      </c>
-      <c r="BN5">
+      <c r="BL5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BN5" t="n">
         <v>0.132</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" t="n">
         <v>1709</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" t="n">
         <v>1851</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" t="n">
         <v>518</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" t="n">
         <v>248</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" t="n">
         <v>847</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" t="n">
         <v>714</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" t="n">
         <v>1099</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" t="n">
         <v>1266</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" t="n">
         <v>709</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" t="n">
         <v>1252</v>
       </c>
-      <c r="BY5">
-        <v>-3</v>
-      </c>
-      <c r="BZ5">
-        <v>-3</v>
-      </c>
-      <c r="CA5">
-        <v>-3</v>
-      </c>
-      <c r="CB5">
-        <v>-3</v>
-      </c>
-      <c r="CC5">
-        <v>-3</v>
-      </c>
-      <c r="CD5">
+      <c r="BY5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CD5" t="n">
         <v>1371</v>
       </c>
-      <c r="CE5">
+      <c r="CE5" t="n">
         <v>1182</v>
       </c>
-      <c r="CF5">
+      <c r="CF5" t="n">
         <v>1296</v>
       </c>
-      <c r="CG5">
-        <v>0</v>
-      </c>
-      <c r="CH5">
-        <v>0</v>
-      </c>
-      <c r="CI5">
-        <v>0</v>
-      </c>
-      <c r="CJ5">
-        <v>0</v>
-      </c>
-      <c r="CK5">
-        <v>0</v>
-      </c>
-      <c r="CL5">
-        <v>-3</v>
-      </c>
-      <c r="CM5">
-        <v>-3</v>
-      </c>
-      <c r="CN5">
-        <v>-3</v>
-      </c>
-      <c r="CO5">
-        <v>-3</v>
-      </c>
-      <c r="CP5">
-        <v>-3</v>
-      </c>
-      <c r="CQ5">
-        <v>-3</v>
-      </c>
-      <c r="CR5">
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CR5" t="n">
         <v>-3</v>
       </c>
     </row>
@@ -2384,284 +2463,284 @@
           <t>Pasta</t>
         </is>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>1000</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>15.8</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>15.8</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>23.6</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>23.6</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>65</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>15.8</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>15.6</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>0.2</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>1.4</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>81.90000000000001</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>0.6</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>10</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>23</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>0.43</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>0.165</v>
       </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
         <v>5.35</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>0.205</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>2.5</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>0.765</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>3.5</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>1</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
         <v>0.12</v>
       </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
         <v>0.09</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" t="n">
         <v>-2</v>
       </c>
-      <c r="AP6">
-        <v>-3</v>
-      </c>
-      <c r="AQ6">
+      <c r="AP6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>9.25</v>
       </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
         <v>0.41</v>
       </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
         <v>0.06</v>
       </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>-3</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>-3</v>
-      </c>
-      <c r="BG6">
-        <v>-3</v>
-      </c>
-      <c r="BH6">
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BH6" t="n">
         <v>0.06</v>
       </c>
-      <c r="BI6">
-        <v>-3</v>
-      </c>
-      <c r="BJ6">
-        <v>-3</v>
-      </c>
-      <c r="BK6">
+      <c r="BI6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BK6" t="n">
         <v>0.06</v>
       </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>0</v>
-      </c>
-      <c r="BO6">
-        <v>0</v>
-      </c>
-      <c r="BP6">
-        <v>0</v>
-      </c>
-      <c r="BQ6">
-        <v>0</v>
-      </c>
-      <c r="BR6">
-        <v>0</v>
-      </c>
-      <c r="BS6">
-        <v>0</v>
-      </c>
-      <c r="BT6">
-        <v>0</v>
-      </c>
-      <c r="BU6">
-        <v>-3</v>
-      </c>
-      <c r="BV6">
-        <v>-3</v>
-      </c>
-      <c r="BW6">
-        <v>-3</v>
-      </c>
-      <c r="BX6">
-        <v>-3</v>
-      </c>
-      <c r="BY6">
-        <v>-3</v>
-      </c>
-      <c r="BZ6">
-        <v>-3</v>
-      </c>
-      <c r="CA6">
-        <v>-3</v>
-      </c>
-      <c r="CB6">
-        <v>-3</v>
-      </c>
-      <c r="CC6">
-        <v>-3</v>
-      </c>
-      <c r="CD6">
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CD6" t="n">
         <v>2397</v>
       </c>
-      <c r="CE6">
+      <c r="CE6" t="n">
         <v>1810</v>
       </c>
-      <c r="CF6">
+      <c r="CF6" t="n">
         <v>1712</v>
       </c>
-      <c r="CG6">
-        <v>0</v>
-      </c>
-      <c r="CH6">
-        <v>0</v>
-      </c>
-      <c r="CI6">
-        <v>0</v>
-      </c>
-      <c r="CJ6">
-        <v>0</v>
-      </c>
-      <c r="CK6">
-        <v>0</v>
-      </c>
-      <c r="CL6">
-        <v>-3</v>
-      </c>
-      <c r="CM6">
-        <v>-3</v>
-      </c>
-      <c r="CN6">
-        <v>-3</v>
-      </c>
-      <c r="CO6">
-        <v>-3</v>
-      </c>
-      <c r="CP6">
-        <v>-3</v>
-      </c>
-      <c r="CQ6">
-        <v>-3</v>
-      </c>
-      <c r="CR6">
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CR6" t="n">
         <v>-3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>